--- a/biology/Zoologie/Cheirochelifer_bigoti/Cheirochelifer_bigoti.xlsx
+++ b/biology/Zoologie/Cheirochelifer_bigoti/Cheirochelifer_bigoti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheirochelifer bigoti est une espèce de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en France et en Espagne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en France et en Espagne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,6 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Louis Bigot[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Louis Bigot.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heurtault, 1981 : Présence et signification dans la France méditerranéenne des espèces des genres Beierochelifer, Cheirochelifer et Calocheiridius (Arachnides, Pseudoscorpions). Atti della Società Toscana di Scienze Naturali, Memorie B, vol. 88 supplement, p. 209-222 (texte intégral).</t>
         </is>
